--- a/biology/Botanique/Pyrostre_de_Commerson/Pyrostre_de_Commerson.xlsx
+++ b/biology/Botanique/Pyrostre_de_Commerson/Pyrostre_de_Commerson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrostria commersonii
-Le pyrostre de Commerson (Pyrostria commersonii), ou bois mussard,  est une espèce de plante de la famille des rubiacées. Elle est endémique de l'île Maurice et de La Réunion[2] dans le sud-ouest de l'océan Indien. Le pyroste de Commerson doit son nom au botaniste Philibert Commerson (1727-1773). Des exemplaires sont exposés au public au jardin botanique de Pamplemousses.
+Le pyrostre de Commerson (Pyrostria commersonii), ou bois mussard,  est une espèce de plante de la famille des rubiacées. Elle est endémique de l'île Maurice et de La Réunion dans le sud-ouest de l'océan Indien. Le pyroste de Commerson doit son nom au botaniste Philibert Commerson (1727-1773). Des exemplaires sont exposés au public au jardin botanique de Pamplemousses.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbuste peut atteindre 5 mètres de hauteur. Les feuilles sont simples, entières et opposée, légèrement luisantes sur la face supérieure. Les fleurs femelles sont solitaires, les fleurs mâles en cymes pédonculées de 3 à 5 fleurs. Le fruit est une petite drupe ronde.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est présent dans les forêts humides au-dessus de 300 mètres.
 </t>
